--- a/Data/Processed/Angiosperms/missing_powo_ipni/Moraceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Moraceae.xlsx
@@ -817,7 +817,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -15293,7 +15293,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19231,7 +19231,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -29054,7 +29054,7 @@
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -30077,7 +30077,7 @@
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
@@ -30087,7 +30087,7 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t xml:space="preserve">Observ. Bot.-Med. Nonnullis Bras. Pl. 2: 34, t. 5. 1803 </t>
+          <t>Observ. Bot.-Med. Nonnullis Bras. Pl. 2: 34, t. 5. 1803</t>
         </is>
       </c>
       <c r="J534" t="b">
@@ -30155,7 +30155,7 @@
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
@@ -30165,7 +30165,7 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syst. Veg., ed. 16 [Sprengel] 4(2, Cur. Post.): 403. 1827 [Jan-Jun 1827] </t>
+          <t>Syst. Veg., ed. 16 [Sprengel] 4(2, Cur. Post.): 403. 1827 [Jan-Jun 1827]</t>
         </is>
       </c>
       <c r="J535" t="b">
@@ -30233,7 +30233,7 @@
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
@@ -30243,7 +30243,7 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 10: 191. 1927 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 10: 191. 1927</t>
         </is>
       </c>
       <c r="J536" t="b">
@@ -30311,7 +30311,7 @@
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
@@ -30321,7 +30321,7 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 640. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 640. 1913</t>
         </is>
       </c>
       <c r="J537" t="b">
@@ -30389,7 +30389,7 @@
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
@@ -30399,7 +30399,7 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annuaire Conserv. Jard. Bot. Genève 21: 117. 1919 </t>
+          <t>Annuaire Conserv. Jard. Bot. Genève 21: 117. 1919</t>
         </is>
       </c>
       <c r="J538" t="b">
@@ -30467,7 +30467,7 @@
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
@@ -30477,7 +30477,7 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 6: 37, fig. 2. 1992 </t>
+          <t>Bradea 6: 37, fig. 2. 1992</t>
         </is>
       </c>
       <c r="J539" t="b">
@@ -30545,7 +30545,7 @@
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
@@ -30555,7 +30555,7 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913</t>
         </is>
       </c>
       <c r="J540" t="b">
@@ -30623,7 +30623,7 @@
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
@@ -30633,7 +30633,7 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 641. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 641. 1913</t>
         </is>
       </c>
       <c r="J541" t="b">
@@ -30701,7 +30701,7 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
@@ -30711,7 +30711,7 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913</t>
         </is>
       </c>
       <c r="J542" t="b">
@@ -30779,7 +30779,7 @@
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
@@ -30789,7 +30789,7 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913</t>
         </is>
       </c>
       <c r="J543" t="b">
@@ -30857,7 +30857,7 @@
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H544" t="inlineStr">
@@ -30867,7 +30867,7 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 641. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 641. 1913</t>
         </is>
       </c>
       <c r="J544" t="b">
@@ -30935,7 +30935,7 @@
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H545" t="inlineStr">
@@ -30945,7 +30945,7 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brittonia 54(4): 243 (fig. 5). 2003 [16 Apr 2003] </t>
+          <t>Brittonia 54(4): 243 (fig. 5). 2003 [16 Apr 2003]</t>
         </is>
       </c>
       <c r="J545" t="b">
@@ -31013,7 +31013,7 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H546" t="inlineStr">
@@ -31023,7 +31023,7 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913</t>
         </is>
       </c>
       <c r="J546" t="b">
@@ -31091,7 +31091,7 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H547" t="inlineStr">
@@ -31101,7 +31101,7 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 643. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 643. 1913</t>
         </is>
       </c>
       <c r="J547" t="b">
@@ -31169,7 +31169,7 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H548" t="inlineStr">
@@ -31179,7 +31179,7 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913</t>
         </is>
       </c>
       <c r="J548" t="b">
@@ -31247,7 +31247,7 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H549" t="inlineStr">
@@ -31257,7 +31257,7 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mém. Soc. Bot. France 52(Mém. 3g): 642. 1906 </t>
+          <t>Mém. Soc. Bot. France 52(Mém. 3g): 642. 1906</t>
         </is>
       </c>
       <c r="J549" t="b">
@@ -31325,7 +31325,7 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H550" t="inlineStr">
@@ -31335,7 +31335,7 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913</t>
         </is>
       </c>
       <c r="J550" t="b">
@@ -31403,7 +31403,7 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H551" t="inlineStr">
@@ -31413,7 +31413,7 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913</t>
         </is>
       </c>
       <c r="J551" t="b">
@@ -31481,7 +31481,7 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H552" t="inlineStr">
@@ -31491,7 +31491,7 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913</t>
         </is>
       </c>
       <c r="J552" t="b">
@@ -31559,7 +31559,7 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H553" t="inlineStr">
@@ -31569,7 +31569,7 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913</t>
         </is>
       </c>
       <c r="J553" t="b">
@@ -31637,7 +31637,7 @@
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H554" t="inlineStr">
@@ -31647,7 +31647,7 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caldasia 7: 244. 1956 </t>
+          <t>Caldasia 7: 244. 1956</t>
         </is>
       </c>
       <c r="J554" t="b">
@@ -31715,7 +31715,7 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H555" t="inlineStr">
@@ -31725,7 +31725,7 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 642. 1913</t>
         </is>
       </c>
       <c r="J555" t="b">
@@ -31793,7 +31793,7 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H556" t="inlineStr">
@@ -31803,7 +31803,7 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 643. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 643. 1913</t>
         </is>
       </c>
       <c r="J556" t="b">
@@ -31871,7 +31871,7 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
@@ -31881,7 +31881,7 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 643. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 643. 1913</t>
         </is>
       </c>
       <c r="J557" t="b">
@@ -31949,7 +31949,7 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H558" t="inlineStr">
@@ -31959,7 +31959,7 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arch. Jard. Bot. Rio de Janeiro 3: 24, footnote (25-26). 1922 </t>
+          <t>Arch. Jard. Bot. Rio de Janeiro 3: 24, footnote (25-26). 1922</t>
         </is>
       </c>
       <c r="J558" t="b">
@@ -32027,7 +32027,7 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H559" t="inlineStr">
@@ -32037,7 +32037,7 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arch. Jard. Bot. Rio de Janeiro 3: 24, footnote (27-28). 1922 </t>
+          <t>Arch. Jard. Bot. Rio de Janeiro 3: 24, footnote (27-28). 1922</t>
         </is>
       </c>
       <c r="J559" t="b">
@@ -32105,7 +32105,7 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H560" t="inlineStr">
@@ -32115,7 +32115,7 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arch. Jard. Bot. Rio de Janeiro 3: 24, footnote (27). 1922 </t>
+          <t>Arch. Jard. Bot. Rio de Janeiro 3: 24, footnote (27). 1922</t>
         </is>
       </c>
       <c r="J560" t="b">
@@ -32183,7 +32183,7 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
@@ -32193,7 +32193,7 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 644. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 644. 1913</t>
         </is>
       </c>
       <c r="J561" t="b">
@@ -32261,7 +32261,7 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
@@ -32271,7 +32271,7 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 644. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 644. 1913</t>
         </is>
       </c>
       <c r="J562" t="b">
